--- a/data/Table_2.5_Transportation_Sector_Energy_Consumption.xlsx
+++ b/data/Table_2.5_Transportation_Sector_Energy_Consumption.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 2.5 Transportation Sector Energy Consumption</t>
@@ -476,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J580"/>
+  <dimension ref="A1:J581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -18666,7 +18666,7 @@
         <v>4.544</v>
       </c>
       <c r="J577">
-        <v>2277.145</v>
+        <v>2277.144</v>
       </c>
     </row>
     <row r="578" spans="1:10">
@@ -18695,10 +18695,10 @@
         <v>2.119</v>
       </c>
       <c r="I578">
-        <v>3.913</v>
+        <v>3.907</v>
       </c>
       <c r="J578">
-        <v>2139.224</v>
+        <v>2139.218</v>
       </c>
     </row>
     <row r="579" spans="1:10">
@@ -18709,28 +18709,28 @@
         <v>0</v>
       </c>
       <c r="C579">
-        <v>85.925</v>
+        <v>85.93</v>
       </c>
       <c r="D579">
         <v>1866.695</v>
       </c>
       <c r="E579">
-        <v>1952.62</v>
+        <v>1952.625</v>
       </c>
       <c r="F579">
         <v>97.458</v>
       </c>
       <c r="G579">
-        <v>2050.078</v>
+        <v>2050.083</v>
       </c>
       <c r="H579">
         <v>2.06</v>
       </c>
       <c r="I579">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
       <c r="J579">
-        <v>2055.851</v>
+        <v>2055.859</v>
       </c>
     </row>
     <row r="580" spans="1:10">
@@ -18741,28 +18741,60 @@
         <v>0</v>
       </c>
       <c r="C580">
-        <v>72.013</v>
+        <v>72.021</v>
       </c>
       <c r="D580">
         <v>1421.586</v>
       </c>
       <c r="E580">
-        <v>1493.599</v>
+        <v>1493.606</v>
       </c>
       <c r="F580">
         <v>74.59</v>
       </c>
       <c r="G580">
-        <v>1568.188</v>
+        <v>1568.196</v>
       </c>
       <c r="H580">
         <v>1.539</v>
       </c>
       <c r="I580">
-        <v>2.744</v>
+        <v>2.742</v>
       </c>
       <c r="J580">
-        <v>1572.471</v>
+        <v>1572.477</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>66.908</v>
+      </c>
+      <c r="D581">
+        <v>1634.021</v>
+      </c>
+      <c r="E581">
+        <v>1700.93</v>
+      </c>
+      <c r="F581">
+        <v>98.423</v>
+      </c>
+      <c r="G581">
+        <v>1799.352</v>
+      </c>
+      <c r="H581">
+        <v>1.543</v>
+      </c>
+      <c r="I581">
+        <v>3.012</v>
+      </c>
+      <c r="J581">
+        <v>1803.908</v>
       </c>
     </row>
   </sheetData>
